--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-NonEvent</t>
+          <t>I-Event</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Correct</t>
+          <t>Wrong_Entity_NonEvent_as_Event</t>
         </is>
       </c>
     </row>

--- a/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
+++ b/experiments/evaluation/llm-seed/bert-base-cased_15/rem-20_remove/rem3/67/word_level_predictions_67.xlsx
@@ -1877,7 +1877,7 @@
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>I-Event</t>
+          <t>I-NonEvent</t>
         </is>
       </c>
       <c r="G28" s="2" t="b">
@@ -1901,7 +1901,7 @@
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>Wrong_Entity_NonEvent_as_Event</t>
+          <t>Correct</t>
         </is>
       </c>
     </row>
